--- a/data/trans_bre/P27F_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27F_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>108,6%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>80,73%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>103,76%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.777736674284243</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.370697725533486</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.68328187581815</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1.085996026266818</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8282825352191122</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.926161377044238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 8,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 5,82</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 3,65</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>41,31; 200,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>18,67; 187,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-16,58; 393,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.88752584314918</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.224181584020821</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4989547694228776</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.4130924049362467</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1963207104514658</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2198362649831914</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.30889639341088</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.890475755100274</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.479959006389481</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>2.000309161042075</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.937349047635642</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.620521550583257</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,17</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>101,47%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>68,52%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 10,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 7,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 2,57</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,93; 346,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-23,13; 290,28</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-47,13; 109,67</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.172752010129811</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.151955732832606</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1937117206609155</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.01465475112877</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6783348064761102</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.05759683636872714</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-48,1%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.7765192256573734</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.22035297668321</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.1581987516084</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.0793413663253538</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2292289926201797</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.4687105271600211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,36; 2,15</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.16930795656583</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.851669740231683</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.494902756594557</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3.466439914876843</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.898414271191978</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.090806644303361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,133 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>107,31%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>77,2%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>30,67%</t>
-        </is>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="n">
+        <v>-1.15006680567101</v>
+      </c>
+      <c r="F10" s="6" t="inlineStr"/>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.3781996843467982</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 8,12</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 5,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 2,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>49,05; 193,48</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>18,97; 155,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-22,0; 118,74</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-5.631201312469517</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>2.990769532318609</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.651811867929394</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.309115742442818</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7531146736156967</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.073071736703636</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.7859134772305016</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2912078532833179</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>3.225872815770198</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.26576450777205</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.7597099162986681</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.4904888256616899</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.2000187451265329</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2298479809945582</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.119641189562991</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.267450323839817</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.106429499603277</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.934806370778402</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.594890846229397</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.165858897641853</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +910,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
